--- a/biology/Zoologie/Amazone_(oiseau)/Amazone_(oiseau).xlsx
+++ b/biology/Zoologie/Amazone_(oiseau)/Amazone_(oiseau).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Amazona
 Le genre Amazona regroupe une trentaine d'espèces d'oiseaux appartenant à la famille des Psittacidae. Amazone (nom féminin) est le nom français que la nomenclature aviaire en langue française (mise à jour) a donné à ces espèces.
@@ -513,7 +525,9 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les amazones sont des perroquets néotropicaux plutôt grands à la silhouette compacte et robuste avec une tête massive, un corps trapu, des ailes larges et une queue courte et carrée.
 </t>
@@ -544,9 +558,11 @@
           <t>Écologie et comportement</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Toutes les espèces vivent en couples mais certaines peuvent également constituer des groupes plus ou moins importants. En vol, les oiseaux forment souvent des files courtes aux battements d'ailes peu amples (les ailes ne sont pas élevées au-dessus du corps). Ils émettent des « ouiou » et des « dak dak dak » sonores[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Toutes les espèces vivent en couples mais certaines peuvent également constituer des groupes plus ou moins importants. En vol, les oiseaux forment souvent des files courtes aux battements d'ailes peu amples (les ailes ne sont pas élevées au-dessus du corps). Ils émettent des « ouiou » et des « dak dak dak » sonores.
 </t>
         </is>
       </c>
@@ -576,6 +592,8 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -603,8 +621,13 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Liste des espèces
-D'après la classification de référence (version 5.2, 2015) du Congrès ornithologique international (ordre phylogénique) :
+          <t>Liste des espèces</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>D'après la classification de référence (version 5.2, 2015) du Congrès ornithologique international (ordre phylogénique) :
 Amazona leucocephala – Amazone de Cuba
 Amazona collaria – Amazone sasabé
 Amazona ventralis – Amazone d'Hispaniola
